--- a/static/folder_kamus/kamus_normalisasi.xlsx
+++ b/static/folder_kamus/kamus_normalisasi.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruby Chandra\Desktop\Skripsi Baru\Program\flask\analisis_sentimen\static\folder_kamus\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6831D0-F1B2-4DAF-AE4D-6AE64023989F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="1244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="1246">
   <si>
     <t>sebelum</t>
   </si>
@@ -3765,12 +3759,18 @@
   </si>
   <si>
     <t>mantab</t>
+  </si>
+  <si>
+    <t>asu</t>
+  </si>
+  <si>
+    <t>asuk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4145,14 +4145,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1857"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A877" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -11380,6 +11380,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A903" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B903" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1002" s="3"/>
       <c r="B1002" s="4"/>
@@ -13132,7 +13140,7 @@
       <c r="A1857" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B897">
+  <sortState ref="A2:B897">
     <sortCondition ref="B897"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/folder_kamus/kamus_normalisasi.xlsx
+++ b/static/folder_kamus/kamus_normalisasi.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruby Chandra\Desktop\Skripsi Baru\Program\flask\Analisis_Sentimen_Aplikasi_SIGNAL\static\folder_kamus\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADC7E50-8F9B-4804-946C-74B695D1E345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="2940" yWindow="3930" windowWidth="15375" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="1246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="1279">
   <si>
     <t>sebelum</t>
   </si>
@@ -3765,12 +3763,111 @@
   </si>
   <si>
     <t>asuk</t>
+  </si>
+  <si>
+    <t>mentance</t>
+  </si>
+  <si>
+    <t>alhmdulillah</t>
+  </si>
+  <si>
+    <t>ndak</t>
+  </si>
+  <si>
+    <t>enggak</t>
+  </si>
+  <si>
+    <t>memamg</t>
+  </si>
+  <si>
+    <t>prpnjng</t>
+  </si>
+  <si>
+    <t>sdkit</t>
+  </si>
+  <si>
+    <t>sedikit</t>
+  </si>
+  <si>
+    <t>smpt</t>
+  </si>
+  <si>
+    <t>lgsg</t>
+  </si>
+  <si>
+    <t>dngan</t>
+  </si>
+  <si>
+    <t>hrus</t>
+  </si>
+  <si>
+    <t>skses</t>
+  </si>
+  <si>
+    <t>sukses</t>
+  </si>
+  <si>
+    <t>slalu</t>
+  </si>
+  <si>
+    <t>trmksh</t>
+  </si>
+  <si>
+    <t>stengah</t>
+  </si>
+  <si>
+    <t>setengah</t>
+  </si>
+  <si>
+    <t>ngak</t>
+  </si>
+  <si>
+    <t>nggk</t>
+  </si>
+  <si>
+    <t>engga</t>
+  </si>
+  <si>
+    <t>gk</t>
+  </si>
+  <si>
+    <t>ga</t>
+  </si>
+  <si>
+    <t>nggak</t>
+  </si>
+  <si>
+    <t>gak</t>
+  </si>
+  <si>
+    <t>gx</t>
+  </si>
+  <si>
+    <t>nob</t>
+  </si>
+  <si>
+    <t>mantulityyyyy</t>
+  </si>
+  <si>
+    <t>dah</t>
+  </si>
+  <si>
+    <t>dan</t>
+  </si>
+  <si>
+    <t>kerenn</t>
+  </si>
+  <si>
+    <t>mantappppp</t>
+  </si>
+  <si>
+    <t>pdhl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4145,18 +4242,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1857"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A877" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A903" sqref="A903"/>
+    <sheetView tabSelected="1" topLeftCell="A933" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B935" sqref="B935"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5449,7 +5546,7 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -11388,6 +11485,262 @@
         <v>1244</v>
       </c>
     </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A904" s="5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B904" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A905" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A906" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B906" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A907" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B907" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A908" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B908" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A909" s="5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B909" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A910" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A911" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B911" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A912" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B912" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A913" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A914" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B914" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A915" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A916" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B916" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A917" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B917" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A918" s="5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A919" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B919" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A920" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B920" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A921" s="5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B921" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A922" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B922" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A923" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B923" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A924" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B924" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A925" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B925" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B926" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B927" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B928" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B929" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B930" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B931" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B933" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B934" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B935" t="s">
+        <v>430</v>
+      </c>
+    </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1002" s="3"/>
       <c r="B1002" s="4"/>
@@ -13140,7 +13493,7 @@
       <c r="A1857" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B897">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B897">
     <sortCondition ref="B897"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/folder_kamus/kamus_normalisasi.xlsx
+++ b/static/folder_kamus/kamus_normalisasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruby Chandra\Desktop\Skripsi Baru\Program\flask\Analisis_Sentimen_Aplikasi_SIGNAL\static\folder_kamus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3830DE72-C776-4752-B867-80FEE5D7BEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DA0CD2-8075-4E47-8CA6-3F7D0B7C53EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="1283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="1364">
   <si>
     <t>sebelum</t>
   </si>
@@ -3874,6 +3874,249 @@
   </si>
   <si>
     <t>dokument</t>
+  </si>
+  <si>
+    <t>admn</t>
+  </si>
+  <si>
+    <t>rangin</t>
+  </si>
+  <si>
+    <t>ringan</t>
+  </si>
+  <si>
+    <t>sma</t>
+  </si>
+  <si>
+    <t>sama</t>
+  </si>
+  <si>
+    <t>ajaa</t>
+  </si>
+  <si>
+    <t>bbrp</t>
+  </si>
+  <si>
+    <t>beberapa</t>
+  </si>
+  <si>
+    <t>bbrapa</t>
+  </si>
+  <si>
+    <t>berkerumanan</t>
+  </si>
+  <si>
+    <t>kerumun</t>
+  </si>
+  <si>
+    <t>buanyak</t>
+  </si>
+  <si>
+    <t>banyak</t>
+  </si>
+  <si>
+    <t>nyampe</t>
+  </si>
+  <si>
+    <t>tampa</t>
+  </si>
+  <si>
+    <t>kalok</t>
+  </si>
+  <si>
+    <t>ngikuti</t>
+  </si>
+  <si>
+    <t>lebik</t>
+  </si>
+  <si>
+    <t>smpe</t>
+  </si>
+  <si>
+    <t>maenin</t>
+  </si>
+  <si>
+    <t>palagi</t>
+  </si>
+  <si>
+    <t>apa lagi</t>
+  </si>
+  <si>
+    <t>kluar</t>
+  </si>
+  <si>
+    <t>keluar</t>
+  </si>
+  <si>
+    <t>duuh</t>
+  </si>
+  <si>
+    <t>duh</t>
+  </si>
+  <si>
+    <t>trnyata</t>
+  </si>
+  <si>
+    <t>verikasi</t>
+  </si>
+  <si>
+    <t>dateng</t>
+  </si>
+  <si>
+    <t>dapet</t>
+  </si>
+  <si>
+    <t>dapat</t>
+  </si>
+  <si>
+    <t>ampe</t>
+  </si>
+  <si>
+    <t>trimakasih</t>
+  </si>
+  <si>
+    <t>shoppe</t>
+  </si>
+  <si>
+    <t>shopee</t>
+  </si>
+  <si>
+    <t>tahank</t>
+  </si>
+  <si>
+    <t>wlpun</t>
+  </si>
+  <si>
+    <t>konekai</t>
+  </si>
+  <si>
+    <t>koneksi</t>
+  </si>
+  <si>
+    <t>diplosok</t>
+  </si>
+  <si>
+    <t>di pelosok</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>profil</t>
+  </si>
+  <si>
+    <t>prlu</t>
+  </si>
+  <si>
+    <t>perlu</t>
+  </si>
+  <si>
+    <t>maun</t>
+  </si>
+  <si>
+    <t>maintenance</t>
+  </si>
+  <si>
+    <t>signalnya</t>
+  </si>
+  <si>
+    <t>mahalin</t>
+  </si>
+  <si>
+    <t>mahal</t>
+  </si>
+  <si>
+    <t>vervikasi</t>
+  </si>
+  <si>
+    <t>poto</t>
+  </si>
+  <si>
+    <t>slesai</t>
+  </si>
+  <si>
+    <t>ongkirnya</t>
+  </si>
+  <si>
+    <t>ongkir</t>
+  </si>
+  <si>
+    <t>ngga</t>
+  </si>
+  <si>
+    <t>cepet</t>
+  </si>
+  <si>
+    <t>bayak</t>
+  </si>
+  <si>
+    <t>sticker</t>
+  </si>
+  <si>
+    <t>stiker</t>
+  </si>
+  <si>
+    <t>muda</t>
+  </si>
+  <si>
+    <t>daan</t>
+  </si>
+  <si>
+    <t>sangattt</t>
+  </si>
+  <si>
+    <t>sangaaat</t>
+  </si>
+  <si>
+    <t>komplen</t>
+  </si>
+  <si>
+    <t>dijakarta</t>
+  </si>
+  <si>
+    <t>dtng</t>
+  </si>
+  <si>
+    <t>pajek</t>
+  </si>
+  <si>
+    <t>nunggu</t>
+  </si>
+  <si>
+    <t>stelah</t>
+  </si>
+  <si>
+    <t>setelah</t>
+  </si>
+  <si>
+    <t>scara</t>
+  </si>
+  <si>
+    <t>secara</t>
+  </si>
+  <si>
+    <t>penggunaannnya</t>
+  </si>
+  <si>
+    <t>yng</t>
+  </si>
+  <si>
+    <t>yang</t>
+  </si>
+  <si>
+    <t>sangant</t>
+  </si>
+  <si>
+    <t>stnkny</t>
+  </si>
+  <si>
+    <t>pokokke</t>
+  </si>
+  <si>
+    <t>pokok</t>
+  </si>
+  <si>
+    <t>nganti</t>
   </si>
 </sst>
 </file>
@@ -4265,8 +4508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1857"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A923" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B940" sqref="B940"/>
+    <sheetView tabSelected="1" topLeftCell="A975" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1003" sqref="B1003"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7751,15 +7994,15 @@
         <v>215</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>215</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="7" t="s">
         <v>1144</v>
       </c>
-      <c r="B436" t="s">
-        <v>215</v>
+      <c r="B436" s="4" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -7767,7 +8010,7 @@
         <v>1243</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>215</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -11794,13 +12037,509 @@
         <v>274</v>
       </c>
     </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A941" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B941" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A942" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B942" s="4" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A943" s="5" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B943" s="4" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A944" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B944" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A945" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B945" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A946" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B946" s="4" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A947" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B947" s="4" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A948" s="5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B948" s="4" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A949" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B949" s="4" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A950" s="5" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B950" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A951" s="5" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B951" s="4" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A952" s="5" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B952" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A953" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B953" s="4" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A954" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B954" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A955" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B955" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A956" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B956" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A957" s="5" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B957" s="4" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A958" s="5" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B958" s="4" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A959" s="5" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B959" s="4" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A960" s="5" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B960" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A961" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B961" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A962" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B962" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A963" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B963" s="4" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A964" s="5" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B964" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A965" s="5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B965" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A966" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B966" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A967" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B967" s="4" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A968" s="5" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B968" s="4" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A969" s="5" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B969" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A970" s="5" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B970" s="4" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A971" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B971" s="4" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A972" s="5" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B972" s="4" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A973" s="5" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B973" s="4" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A974" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B974" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A975" s="5" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B975" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A976" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B976" s="4" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A977" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B977" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A978" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B978" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A979" s="5" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B979" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A980" s="5" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B980" s="4" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A981" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B981" s="4" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A982" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B982" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A983" s="5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B983" s="4" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A984" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B984" s="4" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A985" s="5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B985" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A986" s="5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B986" s="4" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A987" s="5" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B987" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A988" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B988" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A989" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B989" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A990" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B990" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A991" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B991" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A992" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B992" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A993" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B993" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A994" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B994" s="4" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A995" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B995" s="4" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A996" s="5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B996" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A997" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B997" s="4" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A998" s="5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B998" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A999" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B999" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1000" s="5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B1000" s="4" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1001" s="5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B1001" s="4" t="s">
+        <v>1362</v>
+      </c>
+    </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1002" s="3"/>
-      <c r="B1002" s="4"/>
+      <c r="A1002" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B1002" s="4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1003" s="3"/>
-      <c r="B1003" s="4"/>
+      <c r="A1003" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1003" s="4" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1004" s="3"/>
